--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H2">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I2">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J2">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.790226985375436</v>
+        <v>1.173155666666667</v>
       </c>
       <c r="N2">
-        <v>0.790226985375436</v>
+        <v>3.519467</v>
       </c>
       <c r="O2">
-        <v>0.008599797885288781</v>
+        <v>0.01210289927455652</v>
       </c>
       <c r="P2">
-        <v>0.008599797885288781</v>
+        <v>0.01210289927455652</v>
       </c>
       <c r="Q2">
-        <v>427.4547671597996</v>
+        <v>1.204684225208333</v>
       </c>
       <c r="R2">
-        <v>427.4547671597996</v>
+        <v>10.842158026875</v>
       </c>
       <c r="S2">
-        <v>0.008174744347391703</v>
+        <v>2.167907684880859E-05</v>
       </c>
       <c r="T2">
-        <v>0.008174744347391703</v>
+        <v>2.16790768488086E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H3">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I3">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J3">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>77.0018829275798</v>
+        <v>77.65016166666668</v>
       </c>
       <c r="N3">
-        <v>77.0018829275798</v>
+        <v>232.950485</v>
       </c>
       <c r="O3">
-        <v>0.837987872116572</v>
+        <v>0.8010804635798802</v>
       </c>
       <c r="P3">
-        <v>0.837987872116572</v>
+        <v>0.8010804635798802</v>
       </c>
       <c r="Q3">
-        <v>41652.36387370013</v>
+        <v>79.73700976145834</v>
       </c>
       <c r="R3">
-        <v>41652.36387370013</v>
+        <v>717.6330878531251</v>
       </c>
       <c r="S3">
-        <v>0.7965694906023613</v>
+        <v>0.001434919397250275</v>
       </c>
       <c r="T3">
-        <v>0.7965694906023613</v>
+        <v>0.001434919397250275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,111 +658,111 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H4">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I4">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J4">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>14.0969084007467</v>
+        <v>0.1285003333333333</v>
       </c>
       <c r="N4">
-        <v>14.0969084007467</v>
+        <v>0.385501</v>
       </c>
       <c r="O4">
-        <v>0.1534123299981392</v>
+        <v>0.001325677943063769</v>
       </c>
       <c r="P4">
-        <v>0.1534123299981392</v>
+        <v>0.001325677943063769</v>
       </c>
       <c r="Q4">
-        <v>7625.392209621084</v>
+        <v>0.1319537797916667</v>
       </c>
       <c r="R4">
-        <v>7625.392209621084</v>
+        <v>1.187584018125</v>
       </c>
       <c r="S4">
-        <v>0.145829773466864</v>
+        <v>2.374594165620124E-06</v>
       </c>
       <c r="T4">
-        <v>0.145829773466864</v>
+        <v>2.374594165620124E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.658446588360788</v>
+        <v>1.026875</v>
       </c>
       <c r="H5">
-        <v>0.658446588360788</v>
+        <v>3.080625</v>
       </c>
       <c r="I5">
-        <v>0.001157092765786576</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J5">
-        <v>0.001157092765786576</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.790226985375436</v>
+        <v>17.97997033333333</v>
       </c>
       <c r="N5">
-        <v>0.790226985375436</v>
+        <v>53.939911</v>
       </c>
       <c r="O5">
-        <v>0.008599797885288781</v>
+        <v>0.1854909592024995</v>
       </c>
       <c r="P5">
-        <v>0.008599797885288781</v>
+        <v>0.1854909592024995</v>
       </c>
       <c r="Q5">
-        <v>0.5203222625510862</v>
+        <v>18.46318203604166</v>
       </c>
       <c r="R5">
-        <v>0.5203222625510862</v>
+        <v>166.168638324375</v>
       </c>
       <c r="S5">
-        <v>9.950763920294341E-06</v>
+        <v>0.0003322569797605421</v>
       </c>
       <c r="T5">
-        <v>9.950763920294341E-06</v>
+        <v>0.0003322569797605421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.658446588360788</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H6">
-        <v>0.658446588360788</v>
+        <v>1630.040894</v>
       </c>
       <c r="I6">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J6">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.0018829275798</v>
+        <v>1.173155666666667</v>
       </c>
       <c r="N6">
-        <v>77.0018829275798</v>
+        <v>3.519467</v>
       </c>
       <c r="O6">
-        <v>0.837987872116572</v>
+        <v>0.01210289927455652</v>
       </c>
       <c r="P6">
-        <v>0.837987872116572</v>
+        <v>0.01210289927455652</v>
       </c>
       <c r="Q6">
-        <v>50.70162711102172</v>
+        <v>637.4305705648333</v>
       </c>
       <c r="R6">
-        <v>50.70162711102172</v>
+        <v>5736.875135083499</v>
       </c>
       <c r="S6">
-        <v>0.0009696297046429717</v>
+        <v>0.01147097806702428</v>
       </c>
       <c r="T6">
-        <v>0.0009696297046429717</v>
+        <v>0.01147097806702428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.658446588360788</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H7">
-        <v>0.658446588360788</v>
+        <v>1630.040894</v>
       </c>
       <c r="I7">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J7">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.0969084007467</v>
+        <v>77.65016166666668</v>
       </c>
       <c r="N7">
-        <v>14.0969084007467</v>
+        <v>232.950485</v>
       </c>
       <c r="O7">
-        <v>0.1534123299981392</v>
+        <v>0.8010804635798802</v>
       </c>
       <c r="P7">
-        <v>0.1534123299981392</v>
+        <v>0.8010804635798802</v>
       </c>
       <c r="Q7">
-        <v>9.282061242906197</v>
+        <v>42190.97964745929</v>
       </c>
       <c r="R7">
-        <v>9.282061242906197</v>
+        <v>379718.8168271336</v>
       </c>
       <c r="S7">
-        <v>0.0001775122972233098</v>
+        <v>0.7592541439194254</v>
       </c>
       <c r="T7">
-        <v>0.0001775122972233098</v>
+        <v>0.7592541439194255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.467539932957</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H8">
-        <v>27.467539932957</v>
+        <v>1630.040894</v>
       </c>
       <c r="I8">
-        <v>0.04826889881759642</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J8">
-        <v>0.04826889881759642</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.790226985375436</v>
+        <v>0.1285003333333333</v>
       </c>
       <c r="N8">
-        <v>0.790226985375436</v>
+        <v>0.385501</v>
       </c>
       <c r="O8">
-        <v>0.008599797885288781</v>
+        <v>0.001325677943063769</v>
       </c>
       <c r="P8">
-        <v>0.008599797885288781</v>
+        <v>0.001325677943063769</v>
       </c>
       <c r="Q8">
-        <v>21.70559127690002</v>
+        <v>69.82026607532156</v>
       </c>
       <c r="R8">
-        <v>21.70559127690002</v>
+        <v>628.382394677894</v>
       </c>
       <c r="S8">
-        <v>0.0004151027739767838</v>
+        <v>0.001256461139091779</v>
       </c>
       <c r="T8">
-        <v>0.0004151027739767838</v>
+        <v>0.001256461139091779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.467539932957</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H9">
-        <v>27.467539932957</v>
+        <v>1630.040894</v>
       </c>
       <c r="I9">
-        <v>0.04826889881759642</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J9">
-        <v>0.04826889881759642</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>77.0018829275798</v>
+        <v>17.97997033333333</v>
       </c>
       <c r="N9">
-        <v>77.0018829275798</v>
+        <v>53.939911</v>
       </c>
       <c r="O9">
-        <v>0.837987872116572</v>
+        <v>0.1854909592024995</v>
       </c>
       <c r="P9">
-        <v>0.837987872116572</v>
+        <v>0.1854909592024995</v>
       </c>
       <c r="Q9">
-        <v>2115.052294226178</v>
+        <v>9769.36230541338</v>
       </c>
       <c r="R9">
-        <v>2115.052294226178</v>
+        <v>87924.26074872044</v>
       </c>
       <c r="S9">
-        <v>0.04044875180956774</v>
+        <v>0.1758060342711671</v>
       </c>
       <c r="T9">
-        <v>0.04044875180956774</v>
+        <v>0.1758060342711671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9942943333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.982883</v>
+      </c>
+      <c r="I10">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="J10">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.173155666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.519467</v>
+      </c>
+      <c r="O10">
+        <v>0.01210289927455652</v>
+      </c>
+      <c r="P10">
+        <v>0.01210289927455652</v>
+      </c>
+      <c r="Q10">
+        <v>1.166462031484556</v>
+      </c>
+      <c r="R10">
+        <v>10.498158283361</v>
+      </c>
+      <c r="S10">
+        <v>2.099124359115593E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.099124359115593E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9942943333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.982883</v>
+      </c>
+      <c r="I11">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="J11">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>77.65016166666668</v>
+      </c>
+      <c r="N11">
+        <v>232.950485</v>
+      </c>
+      <c r="O11">
+        <v>0.8010804635798802</v>
+      </c>
+      <c r="P11">
+        <v>0.8010804635798802</v>
+      </c>
+      <c r="Q11">
+        <v>77.2071157275839</v>
+      </c>
+      <c r="R11">
+        <v>694.864041548255</v>
+      </c>
+      <c r="S11">
+        <v>0.001389392307219507</v>
+      </c>
+      <c r="T11">
+        <v>0.001389392307219507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9942943333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.982883</v>
+      </c>
+      <c r="I12">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="J12">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1285003333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.385501</v>
+      </c>
+      <c r="O12">
+        <v>0.001325677943063769</v>
+      </c>
+      <c r="P12">
+        <v>0.001325677943063769</v>
+      </c>
+      <c r="Q12">
+        <v>0.1277671532647778</v>
+      </c>
+      <c r="R12">
+        <v>1.149904379383</v>
+      </c>
+      <c r="S12">
+        <v>2.299253095890429E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.299253095890429E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9942943333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.982883</v>
+      </c>
+      <c r="I13">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="J13">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.97997033333333</v>
+      </c>
+      <c r="N13">
+        <v>53.939911</v>
+      </c>
+      <c r="O13">
+        <v>0.1854909592024995</v>
+      </c>
+      <c r="P13">
+        <v>0.1854909592024995</v>
+      </c>
+      <c r="Q13">
+        <v>17.87738261593478</v>
+      </c>
+      <c r="R13">
+        <v>160.896443543413</v>
+      </c>
+      <c r="S13">
+        <v>0.0003217151378564626</v>
+      </c>
+      <c r="T13">
+        <v>0.0003217151378564627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H14">
+        <v>83.733317</v>
+      </c>
+      <c r="I14">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J14">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.173155666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.519467</v>
+      </c>
+      <c r="O14">
+        <v>0.01210289927455652</v>
+      </c>
+      <c r="P14">
+        <v>0.01210289927455652</v>
+      </c>
+      <c r="Q14">
+        <v>32.74407177578211</v>
+      </c>
+      <c r="R14">
+        <v>294.696645982039</v>
+      </c>
+      <c r="S14">
+        <v>0.0005892508870922788</v>
+      </c>
+      <c r="T14">
+        <v>0.0005892508870922788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H15">
+        <v>83.733317</v>
+      </c>
+      <c r="I15">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J15">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.65016166666668</v>
+      </c>
+      <c r="N15">
+        <v>232.950485</v>
+      </c>
+      <c r="O15">
+        <v>0.8010804635798802</v>
+      </c>
+      <c r="P15">
+        <v>0.8010804635798802</v>
+      </c>
+      <c r="Q15">
+        <v>2167.301867312083</v>
+      </c>
+      <c r="R15">
+        <v>19505.71680580874</v>
+      </c>
+      <c r="S15">
+        <v>0.03900200795598498</v>
+      </c>
+      <c r="T15">
+        <v>0.03900200795598498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>27.467539932957</v>
-      </c>
-      <c r="H10">
-        <v>27.467539932957</v>
-      </c>
-      <c r="I10">
-        <v>0.04826889881759642</v>
-      </c>
-      <c r="J10">
-        <v>0.04826889881759642</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.0969084007467</v>
-      </c>
-      <c r="N10">
-        <v>14.0969084007467</v>
-      </c>
-      <c r="O10">
-        <v>0.1534123299981392</v>
-      </c>
-      <c r="P10">
-        <v>0.1534123299981392</v>
-      </c>
-      <c r="Q10">
-        <v>387.207394428747</v>
-      </c>
-      <c r="R10">
-        <v>387.207394428747</v>
-      </c>
-      <c r="S10">
-        <v>0.007405044234051894</v>
-      </c>
-      <c r="T10">
-        <v>0.007405044234051894</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H16">
+        <v>83.733317</v>
+      </c>
+      <c r="I16">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J16">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1285003333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.385501</v>
+      </c>
+      <c r="O16">
+        <v>0.001325677943063769</v>
+      </c>
+      <c r="P16">
+        <v>0.001325677943063769</v>
+      </c>
+      <c r="Q16">
+        <v>3.586586381868555</v>
+      </c>
+      <c r="R16">
+        <v>32.279277436817</v>
+      </c>
+      <c r="S16">
+        <v>6.454295671047933E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.454295671047933E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H17">
+        <v>83.733317</v>
+      </c>
+      <c r="I17">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J17">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.97997033333333</v>
+      </c>
+      <c r="N17">
+        <v>53.939911</v>
+      </c>
+      <c r="O17">
+        <v>0.1854909592024995</v>
+      </c>
+      <c r="P17">
+        <v>0.1854909592024995</v>
+      </c>
+      <c r="Q17">
+        <v>501.8408518571985</v>
+      </c>
+      <c r="R17">
+        <v>4516.567666714786</v>
+      </c>
+      <c r="S17">
+        <v>0.009030952813715416</v>
+      </c>
+      <c r="T17">
+        <v>0.009030952813715418</v>
       </c>
     </row>
   </sheetData>
